--- a/data/trans_orig/Q02D_FES-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_FES-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>8.412111062011824</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.14483530508986</v>
+        <v>5.144835305089861</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>7.465658147385252</v>
@@ -681,7 +681,7 @@
         <v>9.559893807424867</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>8.889728428263121</v>
+        <v>8.889728428263119</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>6.954216945039241</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.345819499934258</v>
+        <v>4.275129725885248</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.992444978350971</v>
+        <v>6.019484381827639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.584817057754472</v>
+        <v>7.527020440850275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.18447844534567</v>
+        <v>4.131072988904646</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.684832502777431</v>
+        <v>6.649173259623624</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.518137110817524</v>
+        <v>7.460341124383601</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.892366440404121</v>
+        <v>8.879004619298444</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.821615150517155</v>
+        <v>7.932105800891424</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.319179044118421</v>
+        <v>6.240662438629281</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.023878557321543</v>
+        <v>7.033151109913333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8.573599827820903</v>
+        <v>8.557239789738279</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.858167365814278</v>
+        <v>6.928647738375742</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.309585653458885</v>
+        <v>6.293736632475143</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.896330824721482</v>
+        <v>6.875046367195559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.453096259087499</v>
+        <v>9.344694806202963</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.099774989531402</v>
+        <v>6.050721442222338</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.359269728111689</v>
+        <v>8.346739693543006</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.277531768755029</v>
+        <v>8.292350376055868</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.34605665816999</v>
+        <v>10.35072369079992</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.03238000377494</v>
+        <v>10.22507485228968</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.706410669292967</v>
+        <v>7.66394146397262</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.616251583706778</v>
+        <v>7.628511278431314</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9.705809192967648</v>
+        <v>9.616092727119213</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.809875324860984</v>
+        <v>8.767833633405491</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>10.48269934305961</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.56776225717546</v>
+        <v>7.567762257175459</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>6.358266065246231</v>
@@ -829,7 +829,7 @@
         <v>9.843297970536666</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>7.155959213973937</v>
+        <v>7.155959213973938</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.365507623039173</v>
+        <v>4.365790073839203</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.271696079528431</v>
+        <v>4.305958457981692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.875351853866579</v>
+        <v>7.835321193189095</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.641622741093142</v>
+        <v>5.667476758182064</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.520819268946428</v>
+        <v>6.496692703615683</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.4794064182095</v>
+        <v>6.481919403656425</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>9.698753461134805</v>
+        <v>9.627408901533375</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.904255395160988</v>
+        <v>6.942596915302158</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.824860844988812</v>
+        <v>5.860632679966194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.774548141461055</v>
+        <v>5.793779186190918</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9.263645462885581</v>
+        <v>9.182953859437173</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.542613324160244</v>
+        <v>6.609761947222744</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.935275286097991</v>
+        <v>5.970645668621902</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.206813249455415</v>
+        <v>5.222380412087726</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.954130918426001</v>
+        <v>9.807626482706505</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.984528336801587</v>
+        <v>7.87302019398696</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.051988178018286</v>
+        <v>7.962897932209107</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.29408071554144</v>
+        <v>7.303751525964756</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>11.36435393179389</v>
+        <v>11.41828467565878</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>8.342668488922202</v>
+        <v>8.349670288645822</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>6.904028188731587</v>
+        <v>6.953535549079849</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.415590596553114</v>
+        <v>6.409892738847019</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10.59626187457619</v>
+        <v>10.45885115035945</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.761722048726726</v>
+        <v>7.892031770696587</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>8.112406898240929</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.517691360259522</v>
+        <v>7.517691360259523</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>6.665933711157682</v>
@@ -953,7 +953,7 @@
         <v>10.77859803798489</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>9.14393439449192</v>
+        <v>9.143934394491918</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>5.595930860689811</v>
@@ -965,7 +965,7 @@
         <v>9.488800149822383</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>8.550582377049722</v>
+        <v>8.55058237704972</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.763118941512516</v>
+        <v>3.752658964883014</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.369348832176759</v>
+        <v>4.332264051472631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.138564777544</v>
+        <v>7.143530352858672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.455874359084608</v>
+        <v>6.291073472962416</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.984604987217009</v>
+        <v>6.017606466771277</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.921374516436332</v>
+        <v>5.927238325435476</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.813624781282595</v>
+        <v>9.790697255026851</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.001758334667063</v>
+        <v>8.120312504708961</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.099882324878356</v>
+        <v>5.093158704472875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.379639075554279</v>
+        <v>5.404675778499427</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8.743004069187721</v>
+        <v>8.756144051058502</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.710930128532083</v>
+        <v>7.79132922400891</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.016094417448611</v>
+        <v>5.050800100899732</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.331306453931536</v>
+        <v>5.255652839601176</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.253953573121837</v>
+        <v>9.282516999048996</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.184928844264206</v>
+        <v>9.164477403832757</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.414966327188004</v>
+        <v>7.421668495943791</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.762632043949925</v>
+        <v>6.852440519972584</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.84046492548655</v>
+        <v>11.86943216348312</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.32371474623834</v>
+        <v>10.46834092782044</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.088248361453498</v>
+        <v>6.099895806168073</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.056411574210786</v>
+        <v>6.055276348029552</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10.21300373447421</v>
+        <v>10.27599724394024</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>9.506005317469288</v>
+        <v>9.583414380150698</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.278564796983794</v>
+        <v>4.263032580315228</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.713092791397131</v>
+        <v>4.61912978199483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.721548646959159</v>
+        <v>7.717521127584677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9.244490592246441</v>
+        <v>9.047894206739977</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.352195378349517</v>
+        <v>6.421990912646981</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.72212942356228</v>
+        <v>6.774807111540514</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>9.483439690971494</v>
+        <v>9.579341805935845</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>11.88241670920191</v>
+        <v>11.88700600020011</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.674721324933342</v>
+        <v>5.617829207971251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.015505573549403</v>
+        <v>5.940134378227818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.289556384014983</v>
+        <v>9.300705186145333</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>11.3631915865662</v>
+        <v>11.59458486988281</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.925816046760911</v>
+        <v>6.983448033922605</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.061425521693075</v>
+        <v>6.017938749152257</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.72159816723214</v>
+        <v>10.67033361346858</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.2218200649438</v>
+        <v>16.60078985686379</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>9.012956740634559</v>
+        <v>8.859078239150138</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.976480051268558</v>
+        <v>8.096108118237508</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>11.92510643324425</v>
+        <v>11.93574387946019</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.3793946131615</v>
+        <v>18.6756613484119</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.610075374633801</v>
+        <v>7.697903689143852</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.990736573059981</v>
+        <v>6.982977724307714</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11.18773434373377</v>
+        <v>11.21458046896774</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>16.45536541264466</v>
+        <v>16.57412514519882</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>8.50759013204595</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.184918961921191</v>
+        <v>7.18491896192119</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>7.141408794579511</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.461625801985837</v>
+        <v>4.439290562981466</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.146555326073609</v>
+        <v>5.175826140519187</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.001228607110905</v>
+        <v>7.982588908090515</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.46999737964731</v>
+        <v>6.436077809778792</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.763509682887096</v>
+        <v>6.711629360641729</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.930912586790848</v>
+        <v>6.921203858673525</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>9.779901694693327</v>
+        <v>9.724878247595337</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>8.285116626017684</v>
+        <v>8.315578853944455</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.934958210145868</v>
+        <v>5.950715521648581</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6.283680555082926</v>
+        <v>6.283331492548114</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9.179085071839557</v>
+        <v>9.14412342691284</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>7.747716908351317</v>
+        <v>7.788707262268822</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.290789227055988</v>
+        <v>5.254577248111792</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.633818603322991</v>
+        <v>5.681448156990394</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.07024841519932</v>
+        <v>9.063707314018767</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.088411446332389</v>
+        <v>8.074255136778943</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.565198696562296</v>
+        <v>7.605548441633061</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.396787537538863</v>
+        <v>7.362912859013061</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.693436844674</v>
+        <v>10.61796357203546</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.586879020601378</v>
+        <v>9.597275522440672</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.561730638240618</v>
+        <v>6.54690843019109</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.643305636308472</v>
+        <v>6.641454387221962</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9.87501069286543</v>
+        <v>9.872788665100758</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.755775639912372</v>
+        <v>8.790076518169693</v>
       </c>
     </row>
     <row r="19">
